--- a/Speed Tests.xlsx
+++ b/Speed Tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Insertion</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -353,15 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -374,8 +383,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -388,8 +406,17 @@
       <c r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -402,8 +429,17 @@
       <c r="D3">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -416,8 +452,17 @@
       <c r="D4">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>297</v>
+      </c>
+      <c r="F4">
+        <v>136</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -430,8 +475,17 @@
       <c r="D5">
         <v>2243</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4526</v>
+      </c>
+      <c r="F5">
+        <v>3810</v>
+      </c>
+      <c r="G5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>25000</v>
       </c>
@@ -444,8 +498,17 @@
       <c r="D6">
         <v>8194</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>9494</v>
+      </c>
+      <c r="F6">
+        <v>20381</v>
+      </c>
+      <c r="G6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50000</v>
       </c>
@@ -458,8 +521,17 @@
       <c r="D7">
         <v>15032</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>24176</v>
+      </c>
+      <c r="F7">
+        <v>76651</v>
+      </c>
+      <c r="G7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>75000</v>
       </c>
@@ -472,8 +544,17 @@
       <c r="D8">
         <v>20879</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>35531</v>
+      </c>
+      <c r="F8">
+        <v>182444</v>
+      </c>
+      <c r="G8">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100000</v>
       </c>
@@ -485,6 +566,15 @@
       </c>
       <c r="D9">
         <v>28318</v>
+      </c>
+      <c r="E9">
+        <v>47399</v>
+      </c>
+      <c r="F9">
+        <v>312087</v>
+      </c>
+      <c r="G9">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
